--- a/pred_ohlcv/54_21/2019-10-25 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 MIX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>129664.2902039389</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>90818.43010393888</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>17824.19230393888</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-9027.576796061123</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-26356.08919606112</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-26788.08919606112</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-26788.08919606112</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-33198.75759606112</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-13047.61549606112</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-392533.0197960611</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-392533.0197960611</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-392533.0197960611</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-392533.0197960611</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-350436.4418960611</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-286719.2010960612</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-286489.2010960612</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-370589.3533960612</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-370589.3533960612</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-369580.4097960612</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-354215.8895960611</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-398726.9480960611</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-398726.9480960611</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-398726.9480960611</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1079624.774696061</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1079624.774696061</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1079614.774696061</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1220188.863796061</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1218588.813196061</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>5214511.522517079</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>7905741.681688508</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>7713051.684847964</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>8072617.253047964</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>8070597.303047963</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>8302923.651547964</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>8507251.400547964</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>8613603.583947964</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>10343072.40233599</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>5926721.96673599</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>3150213.913683504</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>2103157.142483504</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>3031955.617906936</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>2859511.101706936</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>2866205.599006936</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>2657050.458206936</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2720589.517106936</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2617673.728106936</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2703574.694406936</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2642261.959806936</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>2847913.229306936</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>2802550.555906936</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>3606116.17360938</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>3567005.00550938</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>3727105.736006936</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>2760735.167570852</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>4088831.323711336</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>4897552.845711336</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>2493882.058911337</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-933634.3392886636</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1404587.526088664</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-18550252.36227423</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-20829727.81817423</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-20770245.42217423</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-20706936.76367423</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-20700532.31927422</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-20748188.78837422</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-20963112.47857422</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-20963112.47857422</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-20998310.51447422</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-21034324.10117422</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-20414769.85427423</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-21835047.58247423</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-21835047.58247423</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-21834981.90457423</v>
       </c>
       <c r="H601">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-21834981.90457423</v>
       </c>
       <c r="H602">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-21785187.80657423</v>
       </c>
       <c r="H603">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-23365604.85507423</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-23485519.18387423</v>
       </c>
       <c r="H617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-23215019.38637423</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-23041226.12477423</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-23036427.69957422</v>
       </c>
       <c r="H624">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-23041630.54467423</v>
       </c>
       <c r="H625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-23041630.54467423</v>
       </c>
       <c r="H626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-23041630.54467423</v>
       </c>
       <c r="H627">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-23017160.11867423</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-23032142.01277423</v>
       </c>
       <c r="H629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-23032142.01277423</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-23032142.01277423</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-23029825.55387422</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-23029825.55387422</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-23029936.55387422</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-23029936.55387422</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-23028010.45537423</v>
       </c>
       <c r="H637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-23033050.16407423</v>
       </c>
       <c r="H639">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-23060387.62677423</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-23060387.62677423</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-23060387.62677423</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-23060387.62677423</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-23060387.62677423</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-23226743.80247423</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-23774271.30567423</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-25 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 MIX ohlcv.xlsx
@@ -1978,7 +1978,7 @@
         <v>5214511.522517079</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>7905741.681688508</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>7713051.684847964</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>8072617.253047964</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>8070597.303047963</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>8302923.651547964</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>8507251.400547964</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>8613603.583947964</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>10343072.40233599</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>5926721.96673599</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>2103157.142483504</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>3031955.617906936</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>2859511.101706936</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>2866205.599006936</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>2657050.458206936</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2720589.517106936</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2617673.728106936</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2703574.694406936</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2642261.959806936</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>2847913.229306936</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>2802550.555906936</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>3606116.17360938</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>3567005.00550938</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>3727105.736006936</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>2760735.167570852</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>3096046.687170852</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>4523473.644111336</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>4088831.323711336</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>4897552.845711336</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>2493882.058911337</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-933634.3392886636</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1404587.526088664</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-18550252.36227423</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-20829727.81817423</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-20770245.42217423</v>
       </c>
       <c r="H571">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-20706936.76367423</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-20700532.31927422</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-20748188.78837422</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-20963112.47857422</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-20963112.47857422</v>
       </c>
       <c r="H576">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-20998310.51447422</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-21034324.10117422</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-21034324.10117422</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-20485426.32967423</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-21835047.58247423</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-21834981.90457423</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-23485519.18387423</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-23215019.38637423</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-23234091.80797423</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-23234091.80797423</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-23041226.12477423</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-23036427.69957422</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-23041630.54467423</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-23041630.54467423</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-23041630.54467423</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-23017160.11867423</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-23032142.01277423</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-23032142.01277423</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-23032142.01277423</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-23029825.55387422</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-23029825.55387422</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-23029825.55387422</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-23029936.55387422</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-23029936.55387422</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-23028010.45537423</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-23033050.16407423</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-23033050.16407423</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-23060387.62677423</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-23060387.62677423</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-23060387.62677423</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-23060387.62677423</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-23060387.62677423</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-23226743.80247423</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-23774271.30567423</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
